--- a/public/formal-template.xlsx
+++ b/public/formal-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STORE\project\physoom\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15873C-C312-4C24-A3FA-42390B915058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FABFA-AC9C-4193-ABBD-9FAD2D0A9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,6 +342,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,7 +364,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,18 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,13 +625,13 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -656,13 +656,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -680,9 +680,9 @@
       <c r="Y2" s="8"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -707,18 +707,18 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -736,18 +736,18 @@
       <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -765,19 +765,19 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -794,9 +794,9 @@
       <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -821,12 +821,12 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="15"/>
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
@@ -850,11 +850,11 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
@@ -955,7 +955,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -963,7 +963,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1047,11 +1047,11 @@
         <v>3</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
       <c r="J15" s="7"/>
@@ -1078,11 +1078,11 @@
         <v>5</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="7"/>
@@ -1215,11 +1215,11 @@
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
@@ -27080,11 +27080,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="F1:J1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A3:C3"/>
@@ -27092,6 +27087,11 @@
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
